--- a/public/admin_assets/sample/Rough-Diamonds.xlsx
+++ b/public/admin_assets/sample/Rough-Diamonds.xlsx
@@ -40,9 +40,6 @@
     <t>SHAPE</t>
   </si>
   <si>
-    <t>PURITY</t>
-  </si>
-  <si>
     <t>COLOR</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>CLARITY</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,14 +458,14 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -480,28 +480,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
